--- a/attend.xlsx
+++ b/attend.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Pi_Attendance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C51BCD-93EE-4580-B92D-F6349EAA3F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2CEAD2D-63DE-4C0A-AB77-D7F72F746CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -356,15 +356,16 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="A2:D4"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
+    <col min="1" max="1" width="12.08203125" customWidth="1"/>
     <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
